--- a/data/trans_dic/P20_5_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P20_5_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -497,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -521,7 +522,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que le preocupa el nivel de estrés de sus hijos</t>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -601,32 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>61,68%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>54,82%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>80,73%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>32,79%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>73,17%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>2,77%</t>
         </is>
       </c>
     </row>
@@ -639,32 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>24,24; 89,02</t>
+          <t>1,13; 6,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 87,53</t>
+          <t>0,75; 6,43</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,01; 94,25</t>
+          <t>3,52; 11,05</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,03; 59,78</t>
+          <t>1,23; 6,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>53,53; 90,57</t>
+          <t>2,85; 7,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>19,73; 62,23</t>
+          <t>1,28; 5,27</t>
         </is>
       </c>
     </row>
@@ -681,32 +682,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>50,14%</t>
+          <t>18,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>53,25%</t>
+          <t>23,53%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>63,28%</t>
+          <t>36,32%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,04%</t>
+          <t>31,92%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,82%</t>
+          <t>27,22%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>56,37%</t>
+          <t>27,5%</t>
         </is>
       </c>
     </row>
@@ -719,32 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>35,99; 61,68</t>
+          <t>13,74; 24,88</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>35,12; 68,07</t>
+          <t>14,85; 37,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>54,96; 72,25</t>
+          <t>30,1; 42,28</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>48,39; 68,36</t>
+          <t>24,95; 39,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>47,96; 64,68</t>
+          <t>22,72; 31,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>47,02; 66,05</t>
+          <t>21,91; 35,57</t>
         </is>
       </c>
     </row>
@@ -761,32 +762,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>62,41%</t>
+          <t>48,45%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>52,06%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>54,73%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>46,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>63,62%</t>
+          <t>51,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>41,47%</t>
         </is>
       </c>
     </row>
@@ -799,32 +800,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>53,71; 69,95</t>
+          <t>41,22; 55,11</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>43,03; 63,12</t>
+          <t>29,64; 44,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>59,01; 70,7</t>
+          <t>49,85; 60,49</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>44,76; 58,09</t>
+          <t>40,1; 51,98</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>58,59; 68,08</t>
+          <t>46,85; 55,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>46,07; 57,77</t>
+          <t>37,09; 46,28</t>
         </is>
       </c>
     </row>
@@ -841,32 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>62,14%</t>
+          <t>51,66%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>52,57%</t>
+          <t>45,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>64,82%</t>
+          <t>56,34%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>59,91%</t>
+          <t>51,6%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>63,57%</t>
+          <t>54,11%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>56,36%</t>
+          <t>48,43%</t>
         </is>
       </c>
     </row>
@@ -879,32 +880,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>55,47; 68,67</t>
+          <t>45,94; 58,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>46,12; 59,42</t>
+          <t>38,84; 51,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,55; 70,13</t>
+          <t>50,9; 61,67</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>53,34; 65,97</t>
+          <t>45,94; 57,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>59,0; 67,74</t>
+          <t>50,17; 57,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,56; 60,89</t>
+          <t>44,08; 52,69</t>
         </is>
       </c>
     </row>
@@ -921,32 +922,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>57,84%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>47,4%</t>
+          <t>41,51%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>66,78%</t>
+          <t>60,01%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>67,83%</t>
+          <t>63,32%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>62,38%</t>
+          <t>54,7%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>58,08%</t>
+          <t>52,61%</t>
         </is>
       </c>
     </row>
@@ -959,32 +960,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>51,23; 64,93</t>
+          <t>43,03; 56,53</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>40,4; 54,07</t>
+          <t>34,76; 48,16</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>60,5; 72,94</t>
+          <t>53,54; 65,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>60,54; 74,06</t>
+          <t>56,67; 69,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>57,68; 66,99</t>
+          <t>50,23; 59,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>53,48; 63,4</t>
+          <t>47,38; 57,26</t>
         </is>
       </c>
     </row>
@@ -1001,32 +1002,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>65,21%</t>
+          <t>59,19%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>54,1%</t>
+          <t>48,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>69,09%</t>
+          <t>59,87%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>54,72%</t>
+          <t>51,91%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>59,58%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>54,45%</t>
+          <t>50,48%</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1040,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>57,23; 71,42</t>
+          <t>51,98; 65,67</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>45,56; 63,03</t>
+          <t>41,1; 57,71</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>63,1; 75,28</t>
+          <t>54,04; 65,38</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>46,46; 62,62</t>
+          <t>45,44; 59,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>62,54; 71,51</t>
+          <t>55,39; 64,15</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>48,28; 60,34</t>
+          <t>45,11; 56,25</t>
         </is>
       </c>
     </row>
@@ -1081,32 +1082,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>60,9%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>51,91%</t>
+          <t>33,54%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>66,22%</t>
+          <t>48,02%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>57,64%</t>
+          <t>43,01%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>63,77%</t>
+          <t>43,77%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>55,0%</t>
+          <t>38,37%</t>
         </is>
       </c>
     </row>
@@ -1119,32 +1120,39 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>56,86; 64,34</t>
+          <t>36,5; 42,38</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>47,63; 56,27</t>
+          <t>30,54; 37,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>63,54; 68,83</t>
+          <t>45,55; 50,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>54,45; 60,88</t>
+          <t>40,01; 45,7</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>61,53; 65,94</t>
+          <t>41,77; 45,61</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>52,43; 57,51</t>
+          <t>36,09; 40,33</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1164,4 +1172,952 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que le preocupa el nivel de estrés de sus hijos (tasa de respuesta: 99,77%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15549</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11914</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>30921</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>14911</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>46470</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26825</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>5802; 35047</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>3744; 32054</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16307; 51170</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>5779; 32551</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>27819; 75409</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>12348; 50980</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>29.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>55.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>106217</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>134231</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>188425</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>163757</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>294642</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>297988</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>77398; 140204</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>84732; 214908</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>156164; 219374</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>127983; 203555</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>245852; 345084</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>237352; 385415</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>327487</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>244918</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>379922</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>328515</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>707409</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>573433</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>278606; 372454</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>199610; 297849</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>346085; 419911</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>284372; 368648</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>641876; 766154</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>512826; 639938</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>153.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>157.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>353.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>274.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>329829</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>292020</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>396187</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>349004</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>726016</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>641025</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>293324; 371890</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>251388; 333385</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>357942; 433691</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>310741; 389490</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>673165; 776899</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>583480; 697454</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>257.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>224.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>253394</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>200984</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>301491</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>317641</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>554885</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>518625</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>220296; 289378</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>168328; 233205</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>269018; 329397</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>284287; 349551</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>509539; 601642</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>467049; 564502</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>301.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>188.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>323670</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>256593</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>437737</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>350001</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>761407</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>606594</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>284240; 359156</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>216734; 304275</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>395085; 477986</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>306423; 399082</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>707852; 819783</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>542049; 675945</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>563.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>787.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>592.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>1350.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>993.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>1356145</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>1140660</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1734683</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>1523829</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3090828</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>2664489</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>1259187; 1462031</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>1038640; 1260684</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1645690; 1824709</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>1417756; 1619302</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>2950125; 3221197</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2506076; 2800306</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>